--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_resonant.xlsx
@@ -1124,10 +1124,10 @@
         <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -1136,22 +1136,22 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646413</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803683</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833884</v>
+        <v>0.9526279647833881</v>
       </c>
       <c r="Q2">
-        <v>-8.693575901346954E-11</v>
+        <v>-8.691622704914155E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,22 +1201,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464777</v>
+        <v>0.9526279474464773</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.9526279821172763</v>
       </c>
       <c r="Q3">
-        <v>8.709489848414896E-08</v>
+        <v>8.709506709825759E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999128962</v>
+        <v>179.9999999128961</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777255</v>
+        <v>0.9526279330777258</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860255</v>
+        <v>0.9526279964860256</v>
       </c>
       <c r="Q4">
-        <v>5.191988552283613E-07</v>
+        <v>5.191991410431282E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994807922</v>
+        <v>179.9999994807921</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1319,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027257</v>
+        <v>0.9526279361027252</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610254</v>
+        <v>0.9526279934610249</v>
       </c>
       <c r="Q5">
-        <v>4.282295282727104E-07</v>
+        <v>4.282297126994158E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652246</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627997998525</v>
+        <v>0.9526279979985247</v>
       </c>
       <c r="Q6">
-        <v>5.646833833001453E-07</v>
+        <v>5.646835750122915E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994353076</v>
+        <v>179.9999994353075</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279277839744</v>
+        <v>0.952627927783974</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797749</v>
+        <v>0.9526280017797745</v>
       </c>
       <c r="Q7">
-        <v>6.783949314472102E-07</v>
+        <v>6.783951189561192E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.9526279270277238</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360249</v>
+        <v>0.9526280025360245</v>
       </c>
       <c r="Q8">
-        <v>7.011372417086288E-07</v>
+        <v>7.011374291774217E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152235</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485248</v>
+        <v>0.9526280040485244</v>
       </c>
       <c r="Q9">
-        <v>7.466218583780548E-07</v>
+        <v>7.46622045692896E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992533691</v>
+        <v>179.999999253369</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,16 +1614,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027234</v>
+        <v>0.9526279240027231</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610248</v>
+        <v>0.9526280055610244</v>
       </c>
       <c r="Q10">
-        <v>7.921064685088421E-07</v>
+        <v>7.921066557065918E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464733</v>
+        <v>0.9526279232464729</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172748</v>
+        <v>0.9526280063172744</v>
       </c>
       <c r="Q11">
-        <v>8.148487730109114E-07</v>
+        <v>8.148489601685451E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777273</v>
+        <v>0.9526279451777269</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860268</v>
+        <v>0.9526279843860266</v>
       </c>
       <c r="Q12">
-        <v>1.553218070841964E-07</v>
+        <v>1.553219849548141E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777273</v>
+        <v>0.9526279451777269</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860268</v>
+        <v>0.9526279843860266</v>
       </c>
       <c r="Q13">
-        <v>1.553218070841964E-07</v>
+        <v>1.553219849548141E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089769</v>
+        <v>0.9526279429089768</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547763</v>
+        <v>0.9526279866547759</v>
       </c>
       <c r="Q14">
-        <v>2.235487676321491E-07</v>
+        <v>2.235489766099378E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997764423</v>
+        <v>179.9999997764422</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964766</v>
+        <v>0.9526279413964762</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627988167276</v>
+        <v>0.9526279881672756</v>
       </c>
       <c r="Q15">
-        <v>2.690333614988413E-07</v>
+        <v>2.690335464275172E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279459339775</v>
+        <v>0.952627945933977</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297764</v>
       </c>
       <c r="Q16">
-        <v>1.325794959188313E-07</v>
+        <v>1.32579673829565E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2027,16 +2027,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339775</v>
+        <v>0.952627945933977</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297764</v>
       </c>
       <c r="Q17">
-        <v>1.325794959188313E-07</v>
+        <v>1.32579673829565E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360259</v>
+        <v>0.9526279904360256</v>
       </c>
       <c r="Q18">
-        <v>3.372603418737359E-07</v>
+        <v>3.372605697822298E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027258</v>
+        <v>0.952627936102726</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610257</v>
+        <v>0.9526279934610254</v>
       </c>
       <c r="Q19">
-        <v>4.282295985677191E-07</v>
+        <v>4.282298557839597E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339756</v>
+        <v>0.9526279338339758</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297753</v>
+        <v>0.9526279957297755</v>
       </c>
       <c r="Q20">
-        <v>4.964565536729123E-07</v>
+        <v>4.964568260517156E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995035345</v>
+        <v>179.9999995035344</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777255</v>
+        <v>0.9526279330777258</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2272,13 +2272,13 @@
         <v>0.9526279964860256</v>
       </c>
       <c r="Q21">
-        <v>5.191988675006826E-07</v>
+        <v>5.191991321289342E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994807922</v>
+        <v>179.9999994807921</v>
       </c>
     </row>
   </sheetData>
@@ -2376,19 +2376,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723597</v>
+        <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646418</v>
+        <v>0.01094540889646417</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -2574,7 +2574,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O5">
-        <v>1.073936237813093</v>
+        <v>1.073936237813092</v>
       </c>
       <c r="P5">
         <v>1.084507397868702</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764509</v>
+        <v>29.14059842764508</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2993,7 +2993,7 @@
         <v>1.084507397637146</v>
       </c>
       <c r="Q12">
-        <v>29.14059841639572</v>
+        <v>29.14059841639571</v>
       </c>
       <c r="R12">
         <v>-91.10214741295322</v>
@@ -3052,7 +3052,7 @@
         <v>1.084507397637146</v>
       </c>
       <c r="Q13">
-        <v>29.14059841639572</v>
+        <v>29.14059841639571</v>
       </c>
       <c r="R13">
         <v>-91.10214741295322</v>
@@ -3111,7 +3111,7 @@
         <v>1.084507397695035</v>
       </c>
       <c r="Q14">
-        <v>29.14059841760102</v>
+        <v>29.14059841760101</v>
       </c>
       <c r="R14">
         <v>-91.10214740493385</v>
@@ -3164,7 +3164,7 @@
         <v>1.1025031992988</v>
       </c>
       <c r="O15">
-        <v>1.07393623789229</v>
+        <v>1.073936237892289</v>
       </c>
       <c r="P15">
         <v>1.084507397733627</v>
@@ -3628,10 +3628,10 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -3640,10 +3640,10 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646413</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.102503199997684</v>
@@ -3767,13 +3767,13 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740624</v>
+        <v>1.073936237740625</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
       </c>
       <c r="Q4">
-        <v>29.14059842273108</v>
+        <v>29.14059842273107</v>
       </c>
       <c r="R4">
         <v>-91.10214736807154</v>
@@ -3832,7 +3832,7 @@
         <v>1.084507397879575</v>
       </c>
       <c r="Q5">
-        <v>29.14059842112402</v>
+        <v>29.14059842112401</v>
       </c>
       <c r="R5">
         <v>-91.10214737876404</v>
@@ -3894,7 +3894,7 @@
         <v>29.1405984235346</v>
       </c>
       <c r="R6">
-        <v>-91.10214736272529</v>
+        <v>-91.1021473627253</v>
       </c>
       <c r="S6">
         <v>150.3279626343604</v>
@@ -4062,7 +4062,7 @@
         <v>1.102503198760524</v>
       </c>
       <c r="O9">
-        <v>1.073936237627485</v>
+        <v>1.073936237627486</v>
       </c>
       <c r="P9">
         <v>1.084507398149724</v>
@@ -4186,7 +4186,7 @@
         <v>1.084507398207613</v>
       </c>
       <c r="Q11">
-        <v>29.14059842795399</v>
+        <v>29.140598427954</v>
       </c>
       <c r="R11">
         <v>-91.10214733332094</v>
@@ -4360,13 +4360,13 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
       </c>
       <c r="R14">
-        <v>-91.10214740282214</v>
+        <v>-91.10214740282215</v>
       </c>
       <c r="S14">
         <v>150.327962620929</v>
@@ -4717,7 +4717,7 @@
         <v>1.084507397937464</v>
       </c>
       <c r="Q20">
-        <v>29.14059842232931</v>
+        <v>29.14059842232932</v>
       </c>
       <c r="R20">
         <v>-91.10214737074467</v>
@@ -4770,13 +4770,13 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O21">
-        <v>1.073936237740624</v>
+        <v>1.073936237740625</v>
       </c>
       <c r="P21">
         <v>1.084507397956761</v>
       </c>
       <c r="Q21">
-        <v>29.14059842273108</v>
+        <v>29.14059842273107</v>
       </c>
       <c r="R21">
         <v>-91.10214736807154</v>
@@ -4874,25 +4874,25 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.720113386581419E-10</v>
+        <v>1.720094180475086E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640281</v>
+        <v>0.8660253881640282</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>0.8660254194054656</v>
       </c>
       <c r="Q3">
-        <v>8.659293288567855E-08</v>
+        <v>8.659298364012512E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015305</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679623</v>
       </c>
       <c r="Q4">
-        <v>9.162327574343134E-07</v>
+        <v>9.162328318558416E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179629</v>
+        <v>0.866025429717963</v>
       </c>
       <c r="Q5">
-        <v>7.415717626101408E-07</v>
+        <v>7.415718360546288E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5140,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429616</v>
+        <v>0.8660254338429618</v>
       </c>
       <c r="Q6">
-        <v>1.003563310091802E-06</v>
+        <v>1.00356338301086E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.221889601400082E-06</v>
+        <v>1.221889669648304E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -5258,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679605</v>
+        <v>0.8660254379679606</v>
       </c>
       <c r="Q8">
-        <v>1.265554844887398E-06</v>
+        <v>1.265554921568339E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265314</v>
+        <v>0.8660253682265315</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0.8660254393429604</v>
       </c>
       <c r="Q9">
-        <v>1.352885374623551E-06</v>
+        <v>1.352885446873084E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179601</v>
+        <v>0.8660254407179603</v>
       </c>
       <c r="Q10">
-        <v>1.440215894106585E-06</v>
+        <v>1.440215970452764E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5429,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640318</v>
+        <v>0.8660253661640319</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054599</v>
+        <v>0.86602544140546</v>
       </c>
       <c r="Q11">
-        <v>1.483881146335244E-06</v>
+        <v>1.483881226873402E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0.8660254214679654</v>
       </c>
       <c r="Q12">
-        <v>2.175887029548367E-07</v>
+        <v>2.175887538088062E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0.8660254214679654</v>
       </c>
       <c r="Q13">
-        <v>2.175887029548367E-07</v>
+        <v>2.175887538088062E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390281</v>
+        <v>0.8660253840390288</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>0.8660254235304649</v>
       </c>
       <c r="Q14">
-        <v>3.485844511751529E-07</v>
+        <v>3.48584513241815E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054641</v>
+        <v>0.8660254249054642</v>
       </c>
       <c r="Q15">
-        <v>4.359149657973628E-07</v>
+        <v>4.359150313811352E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5730,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804654</v>
+        <v>0.8660254207804655</v>
       </c>
       <c r="Q16">
-        <v>1.739234484959461E-07</v>
+        <v>1.739234951579364E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5789,10 +5789,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804654</v>
+        <v>0.8660254207804655</v>
       </c>
       <c r="Q17">
-        <v>1.739234484959461E-07</v>
+        <v>1.739234951579364E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015283</v>
+        <v>0.8660253806015296</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679643</v>
+        <v>0.866025426967964</v>
       </c>
       <c r="Q18">
-        <v>5.669107308169529E-07</v>
+        <v>5.669107871259573E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,16 +5901,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515287</v>
+        <v>0.86602537785153</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179636</v>
+        <v>0.8660254297179633</v>
       </c>
       <c r="Q19">
-        <v>7.415717493152318E-07</v>
+        <v>7.415718153242558E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890287</v>
+        <v>0.8660253757890305</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804628</v>
+        <v>0.8660254317804624</v>
       </c>
       <c r="Q20">
-        <v>8.725675007947224E-07</v>
+        <v>8.725675796517619E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015304</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679623</v>
       </c>
       <c r="Q21">
-        <v>9.162327479681549E-07</v>
+        <v>9.162328225356944E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -6126,25 +6126,25 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.720113386581419E-10</v>
+        <v>1.720094180475086E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640281</v>
+        <v>0.8660253881640282</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0.8660254194054656</v>
       </c>
       <c r="Q3">
-        <v>8.659293288567855E-08</v>
+        <v>8.659298364012512E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,22 +6268,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015305</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679623</v>
       </c>
       <c r="Q4">
-        <v>9.162327574343134E-07</v>
+        <v>9.162328318558416E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6333,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179629</v>
+        <v>0.866025429717963</v>
       </c>
       <c r="Q5">
-        <v>7.415717626101408E-07</v>
+        <v>7.415718360546288E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429616</v>
+        <v>0.8660254338429618</v>
       </c>
       <c r="Q6">
-        <v>1.003563310091802E-06</v>
+        <v>1.00356338301086E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.221889601400082E-06</v>
+        <v>1.221889669648304E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -6510,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679605</v>
+        <v>0.8660254379679606</v>
       </c>
       <c r="Q8">
-        <v>1.265554844887398E-06</v>
+        <v>1.265554921568339E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265314</v>
+        <v>0.8660253682265315</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0.8660254393429604</v>
       </c>
       <c r="Q9">
-        <v>1.352885374623551E-06</v>
+        <v>1.352885446873084E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6628,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179601</v>
+        <v>0.8660254407179603</v>
       </c>
       <c r="Q10">
-        <v>1.440215894106585E-06</v>
+        <v>1.440215970452764E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6681,16 +6681,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640318</v>
+        <v>0.8660253661640319</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054599</v>
+        <v>0.86602544140546</v>
       </c>
       <c r="Q11">
-        <v>1.483881146335244E-06</v>
+        <v>1.483881226873402E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0.8660254214679654</v>
       </c>
       <c r="Q12">
-        <v>2.175887029548367E-07</v>
+        <v>2.175887538088062E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>0.8660254214679654</v>
       </c>
       <c r="Q13">
-        <v>2.175887029548367E-07</v>
+        <v>2.175887538088062E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390281</v>
+        <v>0.8660253840390288</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0.8660254235304649</v>
       </c>
       <c r="Q14">
-        <v>3.485844511751529E-07</v>
+        <v>3.48584513241815E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054641</v>
+        <v>0.8660254249054642</v>
       </c>
       <c r="Q15">
-        <v>4.359149657973628E-07</v>
+        <v>4.359150313811352E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6982,10 +6982,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804654</v>
+        <v>0.8660254207804655</v>
       </c>
       <c r="Q16">
-        <v>1.739234484959461E-07</v>
+        <v>1.739234951579364E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7041,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804654</v>
+        <v>0.8660254207804655</v>
       </c>
       <c r="Q17">
-        <v>1.739234484959461E-07</v>
+        <v>1.739234951579364E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015283</v>
+        <v>0.8660253806015296</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679643</v>
+        <v>0.866025426967964</v>
       </c>
       <c r="Q18">
-        <v>5.669107308169529E-07</v>
+        <v>5.669107871259573E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515287</v>
+        <v>0.86602537785153</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179636</v>
+        <v>0.8660254297179633</v>
       </c>
       <c r="Q19">
-        <v>7.415717493152318E-07</v>
+        <v>7.415718153242558E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890287</v>
+        <v>0.8660253757890305</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804628</v>
+        <v>0.8660254317804624</v>
       </c>
       <c r="Q20">
-        <v>8.725675007947224E-07</v>
+        <v>8.725675796517619E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015304</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679628</v>
+        <v>0.8660254324679623</v>
       </c>
       <c r="Q21">
-        <v>9.162327479681549E-07</v>
+        <v>9.162328225356944E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -7384,19 +7384,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -7523,7 +7523,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -7588,7 +7588,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -7706,10 +7706,10 @@
         <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7936,10 +7936,10 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363819</v>
+        <v>0.9731342573363818</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
@@ -8231,19 +8231,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8290,19 +8290,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8349,7 +8349,7 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273385</v>
+        <v>0.9731342572273386</v>
       </c>
       <c r="P18">
         <v>0.9840663101380841</v>
@@ -8408,16 +8408,16 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481086</v>
+        <v>0.9731342572481088</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S19">
         <v>150.3745452978639</v>
@@ -8476,7 +8476,7 @@
         <v>29.02648253518848</v>
       </c>
       <c r="R20">
-        <v>-91.24839359046567</v>
+        <v>-91.24839359046568</v>
       </c>
       <c r="S20">
         <v>150.3745453001784</v>
@@ -8526,7 +8526,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -8636,19 +8636,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -8775,7 +8775,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -8840,7 +8840,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -8958,10 +8958,10 @@
         <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9188,10 +9188,10 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363819</v>
+        <v>0.9731342573363818</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
@@ -9483,19 +9483,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9542,19 +9542,19 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9601,7 +9601,7 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273385</v>
+        <v>0.9731342572273386</v>
       </c>
       <c r="P18">
         <v>0.9840663101380841</v>
@@ -9660,16 +9660,16 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481086</v>
+        <v>0.9731342572481088</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S19">
         <v>150.3745452978639</v>
@@ -9728,7 +9728,7 @@
         <v>29.02648253518848</v>
       </c>
       <c r="R20">
-        <v>-91.24839359046567</v>
+        <v>-91.24839359046568</v>
       </c>
       <c r="S20">
         <v>150.3745453001784</v>
@@ -9778,7 +9778,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -9873,7 +9873,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391564</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412838</v>
+        <v>333.3333522412837</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9891,31 +9891,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219864</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868898</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646505</v>
+        <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674483</v>
+        <v>0.1094540870674484</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664724</v>
+        <v>0.6350853099664721</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585753</v>
+        <v>0.6350853098585749</v>
       </c>
       <c r="Q2">
         <v>60.00000000061768</v>
@@ -9927,7 +9927,7 @@
         <v>120.0000000049951</v>
       </c>
       <c r="T2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9971,19 +9971,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.635085327311294</v>
+        <v>0.6350853273112932</v>
       </c>
       <c r="O3">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114491</v>
+        <v>0.6350852941114496</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762071</v>
+        <v>60.00000073762062</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S3">
         <v>120.0000009916559</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279444</v>
+        <v>0.6350853458279435</v>
       </c>
       <c r="O4">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906017</v>
+        <v>0.635085283890602</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789074</v>
+        <v>60.00000083789064</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S4">
-        <v>120.000002388238</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853419297012</v>
+        <v>0.6350853419297005</v>
       </c>
       <c r="O5">
-        <v>1.100000023884846</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P5">
-        <v>0.635085286042359</v>
+        <v>0.6350852860423595</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678137</v>
+        <v>60.00000081678127</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S5">
-        <v>120.0000020942206</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770642</v>
+        <v>0.6350853477770634</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147229</v>
+        <v>0.6350852828147234</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844565</v>
+        <v>60.00000084844554</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
       </c>
       <c r="S6">
-        <v>120.0000025352465</v>
+        <v>120.0000025352466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853526498667</v>
+        <v>0.6350853526498659</v>
       </c>
       <c r="O7">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250261</v>
+        <v>0.6350852801250266</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483254</v>
+        <v>60.00000087483244</v>
       </c>
       <c r="R7">
         <v>-89.99999999999569</v>
       </c>
       <c r="S7">
-        <v>120.0000029027681</v>
+        <v>120.0000029027682</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244271</v>
+        <v>0.6350853536244263</v>
       </c>
       <c r="O8">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870866</v>
+        <v>0.635085279587087</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010993</v>
+        <v>60.00000088010983</v>
       </c>
       <c r="R8">
         <v>-89.99999999999569</v>
       </c>
       <c r="S8">
-        <v>120.0000029762724</v>
+        <v>120.0000029762725</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,19 +10343,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735482</v>
+        <v>0.6350853555735472</v>
       </c>
       <c r="O9">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112081</v>
+        <v>0.6350852785112086</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066469</v>
+        <v>60.0000008906646</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S9">
         <v>120.0000031232811</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226689</v>
+        <v>0.6350853575226679</v>
       </c>
       <c r="O10">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353293</v>
+        <v>0.6350852774353299</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121947</v>
+        <v>60.00000090121939</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S10">
-        <v>120.0000032702897</v>
+        <v>120.0000032702898</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972294</v>
+        <v>0.6350853584972284</v>
       </c>
       <c r="O11">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973897</v>
+        <v>0.6350852768973902</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649688</v>
+        <v>60.00000090649679</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S11">
-        <v>120.000003343794</v>
+        <v>120.0000033437941</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,16 +10529,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349754</v>
+        <v>0.6350853302349744</v>
       </c>
       <c r="O12">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976303</v>
+        <v>0.635085292497631</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345294</v>
+        <v>60.00000075345284</v>
       </c>
       <c r="R12">
         <v>-89.99999999999574</v>
@@ -10591,16 +10591,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349754</v>
+        <v>0.6350853302349744</v>
       </c>
       <c r="O13">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976303</v>
+        <v>0.635085292497631</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345294</v>
+        <v>60.00000075345284</v>
       </c>
       <c r="R13">
         <v>-89.99999999999574</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586576</v>
+        <v>0.6350853331586562</v>
       </c>
       <c r="O14">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838133</v>
+        <v>0.6350852908838137</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928489</v>
+        <v>60.00000076928482</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S14">
-        <v>120.0000014326818</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,19 +10715,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077779</v>
+        <v>0.635085335107777</v>
       </c>
       <c r="O15">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079344</v>
+        <v>0.6350852898079349</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983972</v>
+        <v>60.00000077983964</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S15">
         <v>120.0000015796904</v>
@@ -10777,19 +10777,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604149</v>
+        <v>0.6350853292604139</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852930355699</v>
+        <v>0.6350852930355707</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817552</v>
+        <v>60.00000074817542</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S16">
         <v>120.0000011386645</v>
@@ -10839,19 +10839,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604149</v>
+        <v>0.6350853292604139</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355699</v>
+        <v>0.6350852930355707</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817552</v>
+        <v>60.00000074817542</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S17">
         <v>120.0000011386645</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314602</v>
+        <v>0.6350853380314589</v>
       </c>
       <c r="O18">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941168</v>
+        <v>0.635085288194117</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567172</v>
+        <v>60.00000079567166</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S18">
-        <v>120.0000018002034</v>
+        <v>120.0000018002035</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297022</v>
+        <v>0.6350853419297012</v>
       </c>
       <c r="O19">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423595</v>
+        <v>0.6350852860423599</v>
       </c>
       <c r="Q19">
-        <v>60.0000008167812</v>
+        <v>60.00000081678113</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S19">
-        <v>120.0000020942207</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533839</v>
+        <v>0.635085344853383</v>
       </c>
       <c r="O20">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285413</v>
+        <v>0.6350852844285418</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261333</v>
+        <v>60.00000083261323</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S20">
-        <v>120.0000023147337</v>
+        <v>120.0000023147338</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279443</v>
+        <v>0.6350853458279435</v>
       </c>
       <c r="O21">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906017</v>
+        <v>0.6350852838906023</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789072</v>
+        <v>60.00000083789062</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S21">
-        <v>120.000002388238</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391564</v>
+        <v>57.73503019391567</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412837</v>
+        <v>333.3333522412838</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11206,22 +11206,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219866</v>
+        <v>0.0109454088721987</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868898</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674546</v>
+        <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646504</v>
+        <v>0.01094540889646503</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
         <v>0.6350853099664723</v>
@@ -11230,10 +11230,10 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585753</v>
+        <v>0.6350853098585751</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061765</v>
+        <v>60.00000000061767</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11242,7 +11242,7 @@
         <v>120.0000000049951</v>
       </c>
       <c r="T2">
-        <v>57.73503019391563</v>
+        <v>57.73503019391566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -11286,19 +11286,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372376</v>
+        <v>0.6350853281372374</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615859</v>
+        <v>0.6350852933615856</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271601</v>
+        <v>60.00000077271615</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S3">
         <v>120.0000010386397</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538879</v>
+        <v>0.635085346653888</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852831407388</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298594</v>
+        <v>60.00000087298623</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S4">
-        <v>120.0000024352219</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,19 +11410,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556449</v>
+        <v>0.6350853427556448</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.635085285292496</v>
+        <v>0.6350852852924956</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187664</v>
+        <v>60.00000085187679</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S5">
         <v>120.0000021412045</v>
@@ -11475,16 +11475,16 @@
         <v>0.6350853486030077</v>
       </c>
       <c r="O6">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648599</v>
+        <v>0.6350852820648595</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354091</v>
+        <v>60.00000088354106</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S6">
         <v>120.0000025822304</v>
@@ -11534,19 +11534,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758103</v>
+        <v>0.6350853534758102</v>
       </c>
       <c r="O7">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751631</v>
+        <v>0.6350852793751628</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992779</v>
+        <v>60.00000090992795</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S7">
         <v>120.000002949752</v>
@@ -11596,19 +11596,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503708</v>
+        <v>0.6350853544503707</v>
       </c>
       <c r="O8">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372237</v>
+        <v>0.6350852788372233</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520518</v>
+        <v>60.00000091520533</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S8">
         <v>120.0000030232563</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994917</v>
+        <v>0.6350853563994916</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613452</v>
+        <v>0.6350852777613448</v>
       </c>
       <c r="Q9">
-        <v>60.00000092575995</v>
+        <v>60.0000009257601</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S9">
-        <v>120.000003170265</v>
+        <v>120.0000031702649</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11726,13 +11726,13 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854664</v>
+        <v>0.6350852766854659</v>
       </c>
       <c r="Q10">
-        <v>60.00000093631473</v>
+        <v>60.00000093631488</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S10">
         <v>120.0000033172736</v>
@@ -11782,19 +11782,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231731</v>
+        <v>0.6350853593231729</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475269</v>
+        <v>0.6350852761475264</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159213</v>
+        <v>60.00000094159228</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S11">
         <v>120.0000033907779</v>
@@ -11850,13 +11850,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477674</v>
+        <v>0.635085291747767</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854821</v>
+        <v>60.00000078854835</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S12">
         <v>120.0000012591526</v>
@@ -11912,13 +11912,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477674</v>
+        <v>0.635085291747767</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854821</v>
+        <v>60.00000078854835</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
         <v>120.0000012591526</v>
@@ -11968,19 +11968,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846008</v>
+        <v>0.6350853339846007</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339502</v>
+        <v>0.6350852901339495</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438019</v>
+        <v>60.00000080438036</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S14">
         <v>120.0000014796656</v>
@@ -12030,19 +12030,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853359337215</v>
+        <v>0.6350853359337213</v>
       </c>
       <c r="O15">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580714</v>
+        <v>0.6350852890580708</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493501</v>
+        <v>60.00000081493516</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S15">
         <v>120.0000016266742</v>
@@ -12098,13 +12098,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852922857071</v>
+        <v>0.6350852922857066</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327081</v>
+        <v>60.00000078327094</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S16">
         <v>120.0000011856483</v>
@@ -12160,13 +12160,13 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857071</v>
+        <v>0.6350852922857066</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327081</v>
+        <v>60.00000078327094</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S17">
         <v>120.0000011856483</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574034</v>
+        <v>0.6350853388574035</v>
       </c>
       <c r="O18">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442536</v>
+        <v>0.6350852874442527</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076702</v>
+        <v>60.00000083076723</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S18">
-        <v>120.0000018471873</v>
+        <v>120.0000018471872</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556457</v>
+        <v>0.6350853427556458</v>
       </c>
       <c r="O19">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924965</v>
+        <v>0.6350852852924953</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187646</v>
+        <v>60.00000085187672</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S19">
-        <v>120.0000021412046</v>
+        <v>120.0000021412045</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,19 +12340,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793273</v>
+        <v>0.6350853456793274</v>
       </c>
       <c r="O20">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786783</v>
+        <v>0.635085283678677</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770855</v>
+        <v>60.00000086770884</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S20">
         <v>120.0000023617175</v>
@@ -12405,19 +12405,19 @@
         <v>0.6350853466538879</v>
       </c>
       <c r="O21">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407388</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298593</v>
+        <v>60.00000087298623</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S21">
-        <v>120.0000024352219</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12521,22 +12521,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219864</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868898</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646505</v>
+        <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674483</v>
+        <v>0.1094540870674484</v>
       </c>
       <c r="N2">
         <v>1.090352556933547</v>
@@ -12675,7 +12675,7 @@
         <v>29.9221296297744</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -12737,7 +12737,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S5">
         <v>149.524656679918</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.524656679918</v>
@@ -13726,10 +13726,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q21">
-        <v>29.92212962977439</v>
+        <v>29.9221296297744</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14332,22 +14332,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219866</v>
+        <v>0.0109454088721987</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868898</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674546</v>
+        <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646504</v>
+        <v>0.01094540889646503</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
         <v>1.090352556933547</v>
@@ -14421,7 +14421,7 @@
         <v>1.096496877823413</v>
       </c>
       <c r="Q3">
-        <v>29.922129616241</v>
+        <v>29.92212961624099</v>
       </c>
       <c r="R3">
         <v>-89.99999999999635</v>
@@ -14731,7 +14731,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651796</v>
+        <v>29.92212963651797</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496877498112</v>
       </c>
       <c r="Q11">
-        <v>29.92212964027296</v>
+        <v>29.92212964027295</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14979,7 +14979,7 @@
         <v>1.096496877792915</v>
       </c>
       <c r="Q12">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R12">
         <v>-89.99999999999636</v>
@@ -15041,7 +15041,7 @@
         <v>1.096496877792915</v>
       </c>
       <c r="Q13">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R13">
         <v>-89.99999999999636</v>
@@ -15165,10 +15165,10 @@
         <v>1.096496877742087</v>
       </c>
       <c r="Q15">
-        <v>29.92212962224898</v>
+        <v>29.92212962224899</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S15">
         <v>149.5246566761969</v>
@@ -15351,7 +15351,7 @@
         <v>1.096496877711591</v>
       </c>
       <c r="Q18">
-        <v>29.92212962450198</v>
+        <v>29.92212962450199</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -15647,37 +15647,37 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778153</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911723</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110769</v>
+        <v>0.5773502692110768</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.5773502691690923</v>
+        <v>0.5773502691690922</v>
       </c>
       <c r="Q2">
         <v>60.00000000075384</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
         <v>120.0000000016444</v>
@@ -15727,19 +15727,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857097</v>
+        <v>0.5773502855857103</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027893</v>
+        <v>0.577350254302789</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610981</v>
+        <v>60.00000076610987</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S3">
         <v>120.0000010262632</v>
@@ -15789,19 +15789,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888181</v>
+        <v>0.5773503058881818</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802646</v>
+        <v>0.5773502484802642</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007601</v>
+        <v>60.00000027007613</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S4">
         <v>120.000003019149</v>
@@ -15851,16 +15851,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139765</v>
+        <v>0.5773503016139773</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060599</v>
+        <v>0.5773502497060593</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450418</v>
+        <v>60.00000037450422</v>
       </c>
       <c r="R5">
         <v>-89.99999999999589</v>
@@ -15913,22 +15913,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252833</v>
+        <v>0.5773503080252841</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673682</v>
+        <v>0.5773502478673677</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786193</v>
+        <v>60.00000021786198</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S6">
-        <v>120.0000032289264</v>
+        <v>120.0000032289265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680389</v>
+        <v>0.5773503133680398</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P7">
-        <v>0.577350246335125</v>
+        <v>0.5773502463351246</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732674</v>
+        <v>60.00000008732678</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S7">
-        <v>120.0000037533701</v>
+        <v>120.0000037533702</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,22 +16037,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.57735031443659</v>
+        <v>0.5773503144365908</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286764</v>
+        <v>0.5773502460286759</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121969</v>
+        <v>60.00000006121974</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S8">
-        <v>120.0000038582588</v>
+        <v>120.0000038582589</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16099,19 +16099,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736923</v>
+        <v>0.5773503165736931</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157792</v>
+        <v>0.5773502454157787</v>
       </c>
       <c r="Q9">
-        <v>60.0000000090056</v>
+        <v>60.00000000900565</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -16161,22 +16161,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107946</v>
+        <v>0.5773503187107952</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P10">
-        <v>0.577350244802882</v>
+        <v>0.5773502448028816</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679152</v>
+        <v>59.99999995679156</v>
       </c>
       <c r="R10">
         <v>-89.99999999999594</v>
       </c>
       <c r="S10">
-        <v>120.0000042778137</v>
+        <v>120.0000042778138</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -16223,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793457</v>
+        <v>0.5773503197793465</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964335</v>
+        <v>0.577350244496433</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068448</v>
+        <v>59.99999993068452</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S11">
         <v>120.0000043827025</v>
@@ -16285,19 +16285,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913634</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834434</v>
+        <v>0.5773502533834429</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778867</v>
+        <v>60.00000068778873</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
         <v>120.0000013409294</v>
@@ -16347,19 +16347,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913634</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834434</v>
+        <v>0.5773502533834429</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778867</v>
+        <v>60.00000068778873</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -16409,22 +16409,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970164</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640972</v>
+        <v>0.5773502524640969</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946755</v>
+        <v>60.00000060946761</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S14">
-        <v>120.0000016555955</v>
+        <v>120.0000016555956</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -16471,19 +16471,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341186</v>
+        <v>0.5773502941341193</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P15">
-        <v>0.5773502518512001</v>
+        <v>0.5773502518511997</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725348</v>
+        <v>60.00000055725353</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -16533,19 +16533,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228122</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P16">
-        <v>0.577350253689892</v>
+        <v>0.5773502536898916</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389571</v>
+        <v>60.00000071389576</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -16595,19 +16595,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228122</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P17">
-        <v>0.577350253689892</v>
+        <v>0.5773502536898916</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389571</v>
+        <v>60.00000071389576</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -16657,19 +16657,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397722</v>
+        <v>0.5773502973397728</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318539</v>
+        <v>0.5773502509318535</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893233</v>
+        <v>60.00000047893242</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S18">
         <v>120.0000021800392</v>
@@ -16719,19 +16719,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139766</v>
+        <v>0.5773503016139773</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060593</v>
+        <v>0.5773502497060589</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450416</v>
+        <v>60.00000037450427</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S19">
         <v>120.0000025995941</v>
@@ -16781,19 +16781,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196299</v>
+        <v>0.5773503048196308</v>
       </c>
       <c r="O20">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867133</v>
+        <v>0.5773502487867127</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618305</v>
+        <v>60.00000029618318</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S20">
         <v>120.0000029142603</v>
@@ -16843,19 +16843,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881811</v>
+        <v>0.5773503058881819</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802646</v>
+        <v>0.5773502484802641</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007601</v>
+        <v>60.00000027007614</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S21">
         <v>120.000003019149</v>
@@ -16962,37 +16962,37 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778153</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911723</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110769</v>
+        <v>0.5773502692110768</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P2">
-        <v>0.5773502691690923</v>
+        <v>0.5773502691690922</v>
       </c>
       <c r="Q2">
         <v>60.00000000075384</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
         <v>120.0000000016444</v>
@@ -17042,19 +17042,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857097</v>
+        <v>0.5773502855857103</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027893</v>
+        <v>0.577350254302789</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610981</v>
+        <v>60.00000076610987</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S3">
         <v>120.0000010262632</v>
@@ -17104,19 +17104,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888181</v>
+        <v>0.5773503058881818</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802646</v>
+        <v>0.5773502484802642</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007601</v>
+        <v>60.00000027007613</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S4">
         <v>120.000003019149</v>
@@ -17166,16 +17166,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139765</v>
+        <v>0.5773503016139773</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060599</v>
+        <v>0.5773502497060593</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450418</v>
+        <v>60.00000037450422</v>
       </c>
       <c r="R5">
         <v>-89.99999999999589</v>
@@ -17228,22 +17228,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252833</v>
+        <v>0.5773503080252841</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673682</v>
+        <v>0.5773502478673677</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786193</v>
+        <v>60.00000021786198</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S6">
-        <v>120.0000032289264</v>
+        <v>120.0000032289265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680389</v>
+        <v>0.5773503133680398</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P7">
-        <v>0.577350246335125</v>
+        <v>0.5773502463351246</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732674</v>
+        <v>60.00000008732678</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S7">
-        <v>120.0000037533701</v>
+        <v>120.0000037533702</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,22 +17352,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.57735031443659</v>
+        <v>0.5773503144365908</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286764</v>
+        <v>0.5773502460286759</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121969</v>
+        <v>60.00000006121974</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S8">
-        <v>120.0000038582588</v>
+        <v>120.0000038582589</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17414,19 +17414,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736923</v>
+        <v>0.5773503165736931</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157792</v>
+        <v>0.5773502454157787</v>
       </c>
       <c r="Q9">
-        <v>60.0000000090056</v>
+        <v>60.00000000900565</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -17476,22 +17476,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107946</v>
+        <v>0.5773503187107952</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P10">
-        <v>0.577350244802882</v>
+        <v>0.5773502448028816</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679152</v>
+        <v>59.99999995679156</v>
       </c>
       <c r="R10">
         <v>-89.99999999999594</v>
       </c>
       <c r="S10">
-        <v>120.0000042778137</v>
+        <v>120.0000042778138</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17538,19 +17538,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793457</v>
+        <v>0.5773503197793465</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964335</v>
+        <v>0.577350244496433</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068448</v>
+        <v>59.99999993068452</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S11">
         <v>120.0000043827025</v>
@@ -17600,19 +17600,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913634</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834434</v>
+        <v>0.5773502533834429</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778867</v>
+        <v>60.00000068778873</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
         <v>120.0000013409294</v>
@@ -17662,19 +17662,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913634</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834434</v>
+        <v>0.5773502533834429</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778867</v>
+        <v>60.00000068778873</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -17724,22 +17724,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970164</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640972</v>
+        <v>0.5773502524640969</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946755</v>
+        <v>60.00000060946761</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S14">
-        <v>120.0000016555955</v>
+        <v>120.0000016555956</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -17786,19 +17786,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341186</v>
+        <v>0.5773502941341193</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P15">
-        <v>0.5773502518512001</v>
+        <v>0.5773502518511997</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725348</v>
+        <v>60.00000055725353</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -17848,19 +17848,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228122</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P16">
-        <v>0.577350253689892</v>
+        <v>0.5773502536898916</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389571</v>
+        <v>60.00000071389576</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -17910,19 +17910,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228122</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P17">
-        <v>0.577350253689892</v>
+        <v>0.5773502536898916</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389571</v>
+        <v>60.00000071389576</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -17972,19 +17972,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397722</v>
+        <v>0.5773502973397728</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318539</v>
+        <v>0.5773502509318535</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893233</v>
+        <v>60.00000047893242</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S18">
         <v>120.0000021800392</v>
@@ -18034,19 +18034,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139766</v>
+        <v>0.5773503016139773</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060593</v>
+        <v>0.5773502497060589</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450416</v>
+        <v>60.00000037450427</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S19">
         <v>120.0000025995941</v>
@@ -18096,19 +18096,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196299</v>
+        <v>0.5773503048196308</v>
       </c>
       <c r="O20">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867133</v>
+        <v>0.5773502487867127</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618305</v>
+        <v>60.00000029618318</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S20">
         <v>120.0000029142603</v>
@@ -18158,19 +18158,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881811</v>
+        <v>0.5773503058881819</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802646</v>
+        <v>0.5773502484802641</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007601</v>
+        <v>60.00000027007614</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S21">
         <v>120.000003019149</v>
@@ -18277,19 +18277,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778153</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911723</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -18363,7 +18363,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -18608,13 +18608,13 @@
         <v>0.9900480150169572</v>
       </c>
       <c r="O7">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P7">
         <v>0.9963798866977982</v>
       </c>
       <c r="Q7">
-        <v>29.91230410069564</v>
+        <v>29.91230410069565</v>
       </c>
       <c r="R7">
         <v>-89.99999999999636</v>
@@ -18735,7 +18735,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731364</v>
+        <v>0.9963798866731365</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
@@ -18797,7 +18797,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566952</v>
+        <v>0.9963798866566953</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -19048,7 +19048,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -19169,7 +19169,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -19231,7 +19231,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -19420,7 +19420,7 @@
         <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -19479,7 +19479,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -19592,19 +19592,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778153</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526078</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911723</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -19678,7 +19678,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -19923,13 +19923,13 @@
         <v>0.9900480150169572</v>
       </c>
       <c r="O7">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P7">
         <v>0.9963798866977982</v>
       </c>
       <c r="Q7">
-        <v>29.91230410069564</v>
+        <v>29.91230410069565</v>
       </c>
       <c r="R7">
         <v>-89.99999999999636</v>
@@ -20050,7 +20050,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731364</v>
+        <v>0.9963798866731365</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
@@ -20112,7 +20112,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566952</v>
+        <v>0.9963798866566953</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -20363,7 +20363,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -20484,7 +20484,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -20546,7 +20546,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -20735,7 +20735,7 @@
         <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -20794,7 +20794,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -20895,7 +20895,7 @@
         <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620925</v>
+        <v>57.73503019620926</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20907,25 +20907,25 @@
         <v>333.3333522545259</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723597</v>
+        <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646418</v>
+        <v>0.01094540889646417</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448016</v>
+        <v>0.6350853098448019</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -20934,7 +20934,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228452185141599E-09</v>
+        <v>4.228443463390635E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20987,16 +20987,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852940976675</v>
+        <v>0.6350852940976679</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056277</v>
+        <v>0.6350853272056279</v>
       </c>
       <c r="Q3">
-        <v>9.908898985323616E-07</v>
+        <v>9.90889774622059E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768167</v>
+        <v>0.6350852838768184</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222777</v>
+        <v>0.6350853457222775</v>
       </c>
       <c r="Q4">
-        <v>2.387472097980717E-06</v>
+        <v>2.387471893950249E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575628</v>
+        <v>-179.9999991575627</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21111,16 +21111,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285736</v>
+        <v>0.6350852860285741</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240346</v>
+        <v>0.635085341824035</v>
       </c>
       <c r="Q5">
-        <v>2.093454575417133E-06</v>
+        <v>2.093454452655221E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21173,16 +21173,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.635085282800936</v>
+        <v>0.6350852828009365</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853476713976</v>
+        <v>0.6350853476713977</v>
       </c>
       <c r="Q6">
-        <v>2.534480458873833E-06</v>
+        <v>2.534480335496336E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112382</v>
+        <v>0.6350852801112385</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442001</v>
+        <v>0.6350853525442002</v>
       </c>
       <c r="Q7">
-        <v>2.902002036332587E-06</v>
+        <v>2.902001912450977E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206212</v>
+        <v>-179.9999991206211</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,16 +21297,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732989</v>
+        <v>0.6350852795732991</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187605</v>
+        <v>0.6350853535187608</v>
       </c>
       <c r="Q8">
-        <v>2.975506353670437E-06</v>
+        <v>2.975506229730605E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974192</v>
+        <v>0.6350852784974197</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>0.6350853554678816</v>
       </c>
       <c r="Q9">
-        <v>3.122514982774165E-06</v>
+        <v>3.122514858611387E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,16 +21421,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.63508527742154</v>
+        <v>0.6350852774215403</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853574170024</v>
+        <v>0.6350853574170027</v>
       </c>
       <c r="Q10">
-        <v>3.269523600149247E-06</v>
+        <v>3.269523475816773E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -21483,16 +21483,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836003</v>
+        <v>0.6350852768836006</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915628</v>
+        <v>0.6350853583915631</v>
       </c>
       <c r="Q11">
-        <v>3.343027923499181E-06</v>
+        <v>3.343027799108484E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.635085292483848</v>
+        <v>0.6350852924838485</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -21554,7 +21554,7 @@
         <v>0.6350853301293093</v>
       </c>
       <c r="Q12">
-        <v>1.211402807713654E-06</v>
+        <v>1.211402685413466E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -21607,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.635085292483848</v>
+        <v>0.6350852924838485</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -21616,7 +21616,7 @@
         <v>0.6350853301293093</v>
       </c>
       <c r="Q13">
-        <v>1.211402807713654E-06</v>
+        <v>1.211402685413466E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,16 +21669,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700304</v>
+        <v>0.6350852908700311</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529911</v>
+        <v>0.635085333052991</v>
       </c>
       <c r="Q14">
-        <v>1.431915837041669E-06</v>
+        <v>1.431915685661383E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941507</v>
+        <v>0.6350852897941511</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021116</v>
+        <v>0.6350853350021117</v>
       </c>
       <c r="Q15">
-        <v>1.578924398597115E-06</v>
+        <v>1.578924270779435E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217878</v>
+        <v>0.6350852930217883</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547487</v>
+        <v>0.635085329154749</v>
       </c>
       <c r="Q16">
-        <v>1.137898504276184E-06</v>
+        <v>1.137898382034219E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217878</v>
+        <v>0.6350852930217883</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547487</v>
+        <v>0.635085329154749</v>
       </c>
       <c r="Q17">
-        <v>1.137898504276184E-06</v>
+        <v>1.137898382034219E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,16 +21917,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803328</v>
+        <v>0.6350852881803338</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257938</v>
+        <v>0.6350853379257936</v>
       </c>
       <c r="Q18">
-        <v>1.799437464997996E-06</v>
+        <v>1.79943729605051E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285751</v>
+        <v>0.6350852860285762</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.635085341824036</v>
+        <v>0.6350853418240354</v>
       </c>
       <c r="Q19">
-        <v>2.093454789602063E-06</v>
+        <v>2.093454599937828E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786723</v>
+        <v>-179.9999991786722</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,16 +22041,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147564</v>
+        <v>0.635085284414758</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477172</v>
+        <v>0.6350853447477171</v>
       </c>
       <c r="Q20">
-        <v>2.313967778616925E-06</v>
+        <v>2.313967579873993E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -22103,22 +22103,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768168</v>
+        <v>0.6350852838768184</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853457222777</v>
+        <v>0.6350853457222776</v>
       </c>
       <c r="Q21">
-        <v>2.387472083681817E-06</v>
+        <v>2.387471890663488E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575628</v>
+        <v>-179.9999991575627</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22207,25 +22207,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.73503018874293</v>
       </c>
       <c r="D2">
-        <v>57.73503019620926</v>
+        <v>57.73503019620925</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.333352211419</v>
       </c>
       <c r="G2">
         <v>333.3333522545259</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -22234,13 +22234,13 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646413</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.635085309844802</v>
+        <v>0.6350853098448016</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228448442713897E-09</v>
+        <v>4.228454066015566E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22258,7 +22258,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.73503019183064</v>
+        <v>57.73503019183063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22302,16 +22302,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478039</v>
+        <v>0.6350852933478028</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853280315725</v>
+        <v>0.6350853280315722</v>
       </c>
       <c r="Q3">
-        <v>1.03787346622501E-06</v>
+        <v>1.03787371416874E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269536</v>
+        <v>0.635085283126952</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482225</v>
+        <v>0.6350853465482219</v>
       </c>
       <c r="Q4">
-        <v>2.434455524999336E-06</v>
+        <v>2.434455982417259E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,16 +22426,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852852787102</v>
+        <v>0.635085285278709</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499797</v>
+        <v>0.6350853426499791</v>
       </c>
       <c r="Q5">
-        <v>2.140438119577491E-06</v>
+        <v>2.140438399881886E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -22488,16 +22488,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510726</v>
+        <v>0.6350852820510714</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973423</v>
+        <v>0.6350853484973421</v>
       </c>
       <c r="Q6">
-        <v>2.581464009444797E-06</v>
+        <v>2.581464289149275E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613748</v>
+        <v>0.6350852793613735</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701449</v>
+        <v>0.6350853533701444</v>
       </c>
       <c r="Q7">
-        <v>2.9489855874267E-06</v>
+        <v>2.94898586085709E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22612,16 +22612,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234355</v>
+        <v>0.635085278823434</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447055</v>
+        <v>0.6350853543447051</v>
       </c>
       <c r="Q8">
-        <v>3.022489916434834E-06</v>
+        <v>3.022490189808588E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -22674,16 +22674,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.635085277747556</v>
+        <v>0.6350852777475547</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853562938265</v>
+        <v>0.635085356293826</v>
       </c>
       <c r="Q9">
-        <v>3.169498528399341E-06</v>
+        <v>3.169498801555783E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716766</v>
+        <v>0.6350852766716751</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429472</v>
+        <v>0.6350853582429471</v>
       </c>
       <c r="Q10">
-        <v>3.316507151766509E-06</v>
+        <v>3.316507424757659E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337369</v>
+        <v>0.6350852761337354</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.635085359217508</v>
+        <v>0.6350853592175074</v>
       </c>
       <c r="Q11">
-        <v>3.390011469438246E-06</v>
+        <v>3.390011736589933E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22860,16 +22860,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339848</v>
+        <v>0.6350852917339834</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.635085330955254</v>
+        <v>0.6350853309552538</v>
       </c>
       <c r="Q12">
-        <v>1.258386375701257E-06</v>
+        <v>1.258386622739129E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339848</v>
+        <v>0.6350852917339834</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.635085330955254</v>
+        <v>0.6350853309552538</v>
       </c>
       <c r="Q13">
-        <v>1.258386375701257E-06</v>
+        <v>1.258386622739129E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201669</v>
+        <v>0.6350852901201655</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789356</v>
+        <v>0.6350853338789353</v>
       </c>
       <c r="Q14">
-        <v>1.478899365343166E-06</v>
+        <v>1.478899674657198E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -23046,16 +23046,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442873</v>
+        <v>0.6350852890442861</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853358280564</v>
+        <v>0.6350853358280562</v>
       </c>
       <c r="Q15">
-        <v>1.62590793624224E-06</v>
+        <v>1.625908211472377E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719246</v>
+        <v>0.6350852922719232</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806937</v>
+        <v>0.6350853299806931</v>
       </c>
       <c r="Q16">
-        <v>1.184882072159157E-06</v>
+        <v>1.184882313470839E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,16 +23170,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719246</v>
+        <v>0.6350852922719232</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806937</v>
+        <v>0.6350853299806931</v>
       </c>
       <c r="Q17">
-        <v>1.184882072159157E-06</v>
+        <v>1.184882313470839E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852874304694</v>
+        <v>0.6350852874304681</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517386</v>
+        <v>0.6350853387517377</v>
       </c>
       <c r="Q18">
-        <v>1.846420954825995E-06</v>
+        <v>1.846421319886381E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,16 +23294,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787116</v>
+        <v>0.63508528527871</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499805</v>
+        <v>0.6350853426499797</v>
       </c>
       <c r="Q19">
-        <v>2.140438241923574E-06</v>
+        <v>2.140438648408804E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852836648931</v>
+        <v>0.6350852836648915</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.635085345573662</v>
+        <v>0.6350853455736614</v>
       </c>
       <c r="Q20">
-        <v>2.360951212071922E-06</v>
+        <v>2.360951655827994E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991277449</v>
+        <v>-179.9999991277448</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269536</v>
+        <v>0.635085283126952</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482226</v>
+        <v>0.6350853465482219</v>
       </c>
       <c r="Q21">
-        <v>2.43445552302427E-06</v>
+        <v>2.434455972506532E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>5.123517322003456</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723597</v>
+        <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646418</v>
+        <v>0.01094540889646417</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -24305,7 +24305,7 @@
         <v>1.086862152249445</v>
       </c>
       <c r="P14">
-        <v>1.090352556938987</v>
+        <v>1.090352556938986</v>
       </c>
       <c r="Q14">
         <v>29.5246566747318</v>
@@ -24677,16 +24677,16 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993902</v>
+        <v>1.090352556993903</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165359</v>
+        <v>29.52465668165358</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
       </c>
       <c r="S20">
-        <v>149.9221296290179</v>
+        <v>149.922129629018</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>5.123517322003456</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
         <v>0.01094540889714035</v>
@@ -24864,10 +24864,10 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646413</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.096496878100584</v>
@@ -25003,7 +25003,7 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q4">
-        <v>29.52465668254691</v>
+        <v>29.52465668254692</v>
       </c>
       <c r="R4">
         <v>-90.55768082819935</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352557006645</v>
       </c>
       <c r="Q6">
-        <v>29.52465668370054</v>
+        <v>29.52465668370055</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25251,10 +25251,10 @@
         <v>1.090352557034103</v>
       </c>
       <c r="Q8">
-        <v>29.52465668716143</v>
+        <v>29.52465668716144</v>
       </c>
       <c r="R8">
-        <v>-90.55768081750685</v>
+        <v>-90.55768081750686</v>
       </c>
       <c r="S8">
         <v>149.9221296365125</v>
@@ -25629,7 +25629,7 @@
         <v>-90.55768084557464</v>
       </c>
       <c r="S14">
-        <v>149.9221296207415</v>
+        <v>149.9221296207416</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>1.090352556947153</v>
       </c>
       <c r="Q15">
-        <v>29.52465667620195</v>
+        <v>29.52465667620196</v>
       </c>
       <c r="R15">
         <v>-90.55768084290152</v>
@@ -25871,7 +25871,7 @@
         <v>1.090352556960882</v>
       </c>
       <c r="Q18">
-        <v>29.5246566779324</v>
+        <v>29.52465667793239</v>
       </c>
       <c r="R18">
         <v>-90.55768083889184</v>
@@ -26057,7 +26057,7 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q21">
-        <v>29.52465668254691</v>
+        <v>29.52465668254692</v>
       </c>
       <c r="R21">
         <v>-90.55768082819935</v>
@@ -26167,19 +26167,19 @@
         <v>266.6666760320131</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -26191,10 +26191,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691848033</v>
+        <v>0.577350269184803</v>
       </c>
       <c r="Q2">
-        <v>4.534691768565557E-09</v>
+        <v>4.534688958491803E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393531</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594388</v>
+        <v>0.5773502855594391</v>
       </c>
       <c r="Q3">
-        <v>1.029154300785039E-06</v>
+        <v>1.029154415899808E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,22 +26309,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350248516828</v>
+        <v>0.5773502485168296</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619087</v>
+        <v>0.5773503058619086</v>
       </c>
       <c r="Q4">
-        <v>3.022040072951017E-06</v>
+        <v>3.022040256039529E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426233</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877045</v>
+        <v>0.5773503015877047</v>
       </c>
       <c r="Q5">
-        <v>2.602485221996409E-06</v>
+        <v>2.602485364241984E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039319</v>
+        <v>0.5773502479039322</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990105</v>
+        <v>0.5773503079990108</v>
       </c>
       <c r="Q6">
-        <v>3.231817602307429E-06</v>
+        <v>3.231817749861762E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716891</v>
+        <v>0.5773502463716895</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417656</v>
+        <v>0.5773503133417659</v>
       </c>
       <c r="Q7">
-        <v>3.756261254642463E-06</v>
+        <v>3.756261401335292E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094308</v>
+        <v>-179.9999999094307</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,16 +26557,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652405</v>
+        <v>0.5773502460652409</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103167</v>
+        <v>0.5773503144103169</v>
       </c>
       <c r="Q8">
-        <v>3.861149973305999E-06</v>
+        <v>3.861150126261832E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -26619,16 +26619,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523433</v>
+        <v>0.5773502454523436</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474189</v>
+        <v>0.5773503165474191</v>
       </c>
       <c r="Q9">
-        <v>4.07092745911977E-06</v>
+        <v>4.070927598971686E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -26681,16 +26681,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394463</v>
+        <v>0.5773502448394466</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845211</v>
+        <v>0.5773503186845214</v>
       </c>
       <c r="Q10">
-        <v>4.280704932167561E-06</v>
+        <v>4.280705071730521E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329978</v>
+        <v>0.5773502445329981</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530722</v>
+        <v>0.5773503197530724</v>
       </c>
       <c r="Q11">
-        <v>4.385593645743734E-06</v>
+        <v>4.385593804291917E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -26805,7 +26805,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577350253420007</v>
+        <v>0.5773502534200071</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -26814,7 +26814,7 @@
         <v>0.5773502887650924</v>
       </c>
       <c r="Q12">
-        <v>1.34382050068627E-06</v>
+        <v>1.343820604337074E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26867,7 +26867,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.577350253420007</v>
+        <v>0.5773502534200071</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -26876,7 +26876,7 @@
         <v>0.5773502887650924</v>
       </c>
       <c r="Q13">
-        <v>1.34382050068627E-06</v>
+        <v>1.343820604337074E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006605</v>
+        <v>0.5773502525006613</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707453</v>
+        <v>0.5773502919707455</v>
       </c>
       <c r="Q14">
-        <v>1.658486656648724E-06</v>
+        <v>1.658486794637385E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26991,16 +26991,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877637</v>
+        <v>0.577350251887764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.577350294107847</v>
+        <v>0.5773502941078473</v>
       </c>
       <c r="Q15">
-        <v>1.868264105932931E-06</v>
+        <v>1.868264255782816E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27053,16 +27053,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264558</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965413</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q16">
-        <v>1.23893177560642E-06</v>
+        <v>1.23893187935533E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264558</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965413</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q17">
-        <v>1.23893177560642E-06</v>
+        <v>1.23893187935533E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684172</v>
+        <v>0.5773502509684184</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135005</v>
+        <v>0.5773502973135007</v>
       </c>
       <c r="Q18">
-        <v>2.182930287067832E-06</v>
+        <v>2.182930431178959E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426224</v>
+        <v>0.5773502497426238</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877047</v>
+        <v>0.5773503015877046</v>
       </c>
       <c r="Q19">
-        <v>2.602485191307318E-06</v>
+        <v>2.60248534180209E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232766</v>
+        <v>0.577350248823278</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933579</v>
+        <v>0.5773503047933576</v>
       </c>
       <c r="Q20">
-        <v>2.917151355158511E-06</v>
+        <v>2.917151523724559E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,22 +27363,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168279</v>
+        <v>0.5773502485168295</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619089</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q21">
-        <v>3.022040073485898E-06</v>
+        <v>3.02204024195384E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27978,19 +27978,19 @@
         <v>266.6666760320131</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -28002,10 +28002,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691848033</v>
+        <v>0.577350269184803</v>
       </c>
       <c r="Q2">
-        <v>4.534691768565557E-09</v>
+        <v>4.534688958491803E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393531</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594388</v>
+        <v>0.5773502855594391</v>
       </c>
       <c r="Q3">
-        <v>1.029154300785039E-06</v>
+        <v>1.029154415899808E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350248516828</v>
+        <v>0.5773502485168296</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619087</v>
+        <v>0.5773503058619086</v>
       </c>
       <c r="Q4">
-        <v>3.022040072951017E-06</v>
+        <v>3.022040256039529E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426233</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877045</v>
+        <v>0.5773503015877047</v>
       </c>
       <c r="Q5">
-        <v>2.602485221996409E-06</v>
+        <v>2.602485364241984E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -28244,16 +28244,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039319</v>
+        <v>0.5773502479039322</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990105</v>
+        <v>0.5773503079990108</v>
       </c>
       <c r="Q6">
-        <v>3.231817602307429E-06</v>
+        <v>3.231817749861762E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716891</v>
+        <v>0.5773502463716895</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417656</v>
+        <v>0.5773503133417659</v>
       </c>
       <c r="Q7">
-        <v>3.756261254642463E-06</v>
+        <v>3.756261401335292E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094308</v>
+        <v>-179.9999999094307</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,16 +28368,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652405</v>
+        <v>0.5773502460652409</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103167</v>
+        <v>0.5773503144103169</v>
       </c>
       <c r="Q8">
-        <v>3.861149973305999E-06</v>
+        <v>3.861150126261832E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -28430,16 +28430,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523433</v>
+        <v>0.5773502454523436</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474189</v>
+        <v>0.5773503165474191</v>
       </c>
       <c r="Q9">
-        <v>4.07092745911977E-06</v>
+        <v>4.070927598971686E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -28492,16 +28492,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394463</v>
+        <v>0.5773502448394466</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845211</v>
+        <v>0.5773503186845214</v>
       </c>
       <c r="Q10">
-        <v>4.280704932167561E-06</v>
+        <v>4.280705071730521E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -28554,16 +28554,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329978</v>
+        <v>0.5773502445329981</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530722</v>
+        <v>0.5773503197530724</v>
       </c>
       <c r="Q11">
-        <v>4.385593645743734E-06</v>
+        <v>4.385593804291917E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -28616,7 +28616,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577350253420007</v>
+        <v>0.5773502534200071</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -28625,7 +28625,7 @@
         <v>0.5773502887650924</v>
       </c>
       <c r="Q12">
-        <v>1.34382050068627E-06</v>
+        <v>1.343820604337074E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -28678,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.577350253420007</v>
+        <v>0.5773502534200071</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -28687,7 +28687,7 @@
         <v>0.5773502887650924</v>
       </c>
       <c r="Q13">
-        <v>1.34382050068627E-06</v>
+        <v>1.343820604337074E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,16 +28740,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006605</v>
+        <v>0.5773502525006613</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707453</v>
+        <v>0.5773502919707455</v>
       </c>
       <c r="Q14">
-        <v>1.658486656648724E-06</v>
+        <v>1.658486794637385E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -28802,16 +28802,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877637</v>
+        <v>0.577350251887764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.577350294107847</v>
+        <v>0.5773502941078473</v>
       </c>
       <c r="Q15">
-        <v>1.868264105932931E-06</v>
+        <v>1.868264255782816E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28864,16 +28864,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264558</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965413</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q16">
-        <v>1.23893177560642E-06</v>
+        <v>1.23893187935533E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264558</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965413</v>
+        <v>0.5773502876965414</v>
       </c>
       <c r="Q17">
-        <v>1.23893177560642E-06</v>
+        <v>1.23893187935533E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684172</v>
+        <v>0.5773502509684184</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135005</v>
+        <v>0.5773502973135007</v>
       </c>
       <c r="Q18">
-        <v>2.182930287067832E-06</v>
+        <v>2.182930431178959E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426224</v>
+        <v>0.5773502497426238</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877047</v>
+        <v>0.5773503015877046</v>
       </c>
       <c r="Q19">
-        <v>2.602485191307318E-06</v>
+        <v>2.60248534180209E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232766</v>
+        <v>0.577350248823278</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933579</v>
+        <v>0.5773503047933576</v>
       </c>
       <c r="Q20">
-        <v>2.917151355158511E-06</v>
+        <v>2.917151523724559E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,22 +29174,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168279</v>
+        <v>0.5773502485168295</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619089</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q21">
-        <v>3.022040073485898E-06</v>
+        <v>3.02204024195384E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29293,19 +29293,19 @@
         <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -29329,7 +29329,7 @@
         <v>149.9123040588406</v>
       </c>
       <c r="T2">
-        <v>0.8054271382348196</v>
+        <v>0.8054271382348197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -29379,7 +29379,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -29435,7 +29435,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -29500,13 +29500,13 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q5">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R5">
         <v>-90.63269605801423</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397394</v>
+        <v>0.9963798867397397</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29627,7 +29627,7 @@
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177871</v>
+        <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
         <v>29.46075732700073</v>
@@ -29692,7 +29692,7 @@
         <v>0.9900480150288176</v>
       </c>
       <c r="Q8">
-        <v>29.46075732799784</v>
+        <v>29.46075732799785</v>
       </c>
       <c r="R8">
         <v>-90.63269603492033</v>
@@ -29754,7 +29754,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999206</v>
+        <v>29.46075732999207</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -29813,13 +29813,13 @@
         <v>0.9864427566036181</v>
       </c>
       <c r="P10">
-        <v>0.9900480150729396</v>
+        <v>0.9900480150729398</v>
       </c>
       <c r="Q10">
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722235</v>
+        <v>-90.63269602722237</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -29937,7 +29937,7 @@
         <v>0.9864427565299282</v>
       </c>
       <c r="P12">
-        <v>0.9900480147640851</v>
+        <v>0.990048014764085</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -29946,7 +29946,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -29999,7 +29999,7 @@
         <v>0.9864427565299282</v>
       </c>
       <c r="P13">
-        <v>0.9900480147640851</v>
+        <v>0.990048014764085</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -30008,7 +30008,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -30244,7 +30244,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O17">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P17">
         <v>0.9900480147530545</v>
@@ -30303,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219457</v>
+        <v>0.9963798868219458</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -30368,13 +30368,13 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -30489,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -30608,19 +30608,19 @@
         <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.012437964627781</v>
+        <v>0.01243796462778101</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.0124379646636695</v>
+        <v>0.01243796466366949</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019063</v>
+        <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911615</v>
+        <v>0.01243796465911619</v>
       </c>
       <c r="M2">
         <v>0.1243796443940134</v>
@@ -30644,7 +30644,7 @@
         <v>149.9123040588406</v>
       </c>
       <c r="T2">
-        <v>0.8054271382348196</v>
+        <v>0.8054271382348197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -30694,7 +30694,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -30815,13 +30815,13 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q5">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R5">
         <v>-90.63269605801423</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397394</v>
+        <v>0.9963798867397397</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -30942,7 +30942,7 @@
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177871</v>
+        <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
         <v>29.46075732700073</v>
@@ -31007,7 +31007,7 @@
         <v>0.9900480150288176</v>
       </c>
       <c r="Q8">
-        <v>29.46075732799784</v>
+        <v>29.46075732799785</v>
       </c>
       <c r="R8">
         <v>-90.63269603492033</v>
@@ -31069,7 +31069,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999206</v>
+        <v>29.46075732999207</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -31128,13 +31128,13 @@
         <v>0.9864427566036181</v>
       </c>
       <c r="P10">
-        <v>0.9900480150729396</v>
+        <v>0.9900480150729398</v>
       </c>
       <c r="Q10">
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722235</v>
+        <v>-90.63269602722237</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -31252,7 +31252,7 @@
         <v>0.9864427565299282</v>
       </c>
       <c r="P12">
-        <v>0.9900480147640851</v>
+        <v>0.990048014764085</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -31261,7 +31261,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -31314,7 +31314,7 @@
         <v>0.9864427565299282</v>
       </c>
       <c r="P13">
-        <v>0.9900480147640851</v>
+        <v>0.990048014764085</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -31323,7 +31323,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -31497,7 +31497,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -31559,7 +31559,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O17">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P17">
         <v>0.9900480147530545</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219457</v>
+        <v>0.9963798868219458</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -31683,13 +31683,13 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -34400,19 +34400,19 @@
         <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723597</v>
+        <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646418</v>
+        <v>0.01094540889646417</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -34427,7 +34427,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.69290327661396E-11</v>
+        <v>-8.694441150510461E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,16 +34477,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343819</v>
+        <v>0.9526279482343817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293723</v>
+        <v>0.9526279813293719</v>
       </c>
       <c r="Q3">
-        <v>8.313222490547773E-08</v>
+        <v>8.313217718990856E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,22 +34536,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.95262793386563</v>
+        <v>0.9526279338656309</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981215</v>
+        <v>0.9526279956981207</v>
       </c>
       <c r="Q4">
-        <v>5.152362959238389E-07</v>
+        <v>5.152361828806325E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.999999484755</v>
+        <v>179.9999994847551</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -34601,10 +34601,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731209</v>
+        <v>0.9526279926731207</v>
       </c>
       <c r="Q5">
-        <v>4.242668665775623E-07</v>
+        <v>4.242668172459305E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -34660,10 +34660,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106207</v>
+        <v>0.9526279972106204</v>
       </c>
       <c r="Q6">
-        <v>5.607207291836992E-07</v>
+        <v>5.607206794619913E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -34713,22 +34713,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718785</v>
+        <v>0.9526279285718784</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918701</v>
       </c>
       <c r="Q7">
-        <v>6.7443226951055E-07</v>
+        <v>6.744322310349949E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999993255588</v>
+        <v>179.9999993255589</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156284</v>
+        <v>0.9526279278156281</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481206</v>
+        <v>0.9526280017481201</v>
       </c>
       <c r="Q8">
-        <v>6.971745758947951E-07</v>
+        <v>6.971745373820393E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999993028165</v>
+        <v>179.9999993028166</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -34837,10 +34837,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606205</v>
+        <v>0.95262800326062</v>
       </c>
       <c r="Q9">
-        <v>7.426591963755277E-07</v>
+        <v>7.426591538664037E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -34896,10 +34896,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731205</v>
+        <v>0.9526280047731198</v>
       </c>
       <c r="Q10">
-        <v>7.881438064624041E-07</v>
+        <v>7.881437638455042E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -34949,16 +34949,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343777</v>
+        <v>0.9526279240343773</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293703</v>
+        <v>0.9526280055293701</v>
       </c>
       <c r="Q11">
-        <v>8.108861109425175E-07</v>
+        <v>8.108860682884174E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981226</v>
+        <v>0.9526279835981221</v>
       </c>
       <c r="Q12">
-        <v>1.513591308914705E-07</v>
+        <v>1.513590869363015E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35073,10 +35073,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981226</v>
+        <v>0.9526279835981221</v>
       </c>
       <c r="Q13">
-        <v>1.513591308914705E-07</v>
+        <v>1.513590869363015E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35126,22 +35126,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279436968812</v>
+        <v>0.9526279436968815</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668723</v>
+        <v>0.9526279858668715</v>
       </c>
       <c r="Q14">
-        <v>2.195861321548662E-07</v>
+        <v>2.195860681645439E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997804051</v>
+        <v>179.9999997804052</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279421843808</v>
+        <v>0.9526279421843805</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279873793716</v>
+        <v>0.9526279873793714</v>
       </c>
       <c r="Q15">
-        <v>2.650707038126006E-07</v>
+        <v>2.650706549416197E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -35250,10 +35250,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418724</v>
+        <v>0.952627982841872</v>
       </c>
       <c r="Q16">
-        <v>1.286168236032789E-07</v>
+        <v>1.286167796853104E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35309,10 +35309,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418724</v>
+        <v>0.952627982841872</v>
       </c>
       <c r="Q17">
-        <v>1.286168236032789E-07</v>
+        <v>1.286167796853104E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,22 +35362,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156306</v>
+        <v>0.9526279399156311</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481219</v>
+        <v>0.9526279896481211</v>
       </c>
       <c r="Q18">
-        <v>3.332977328955016E-07</v>
+        <v>3.332976507263541E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666935</v>
+        <v>179.9999996666936</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906302</v>
+        <v>0.952627936890631</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731216</v>
+        <v>0.9526279926731207</v>
       </c>
       <c r="Q19">
-        <v>4.242670280237674E-07</v>
+        <v>4.242669155609977E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -35480,22 +35480,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218801</v>
+        <v>0.9526279346218811</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418716</v>
+        <v>0.9526279949418706</v>
       </c>
       <c r="Q20">
-        <v>4.924939892101257E-07</v>
+        <v>4.924938731224081E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995074973</v>
+        <v>179.9999995074974</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -35539,22 +35539,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656309</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981215</v>
+        <v>0.9526279956981207</v>
       </c>
       <c r="Q21">
-        <v>5.152362953055046E-07</v>
+        <v>5.152361868910222E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.999999484755</v>
+        <v>179.9999994847551</v>
       </c>
     </row>
   </sheetData>
